--- a/working/KreutzPFAS/KreutzPFAS-PPB-UC-Level4.xlsx
+++ b/working/KreutzPFAS/KreutzPFAS-PPB-UC-Level4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwambaug\git\invitrotkstats\working\KreutzPFAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85770262-6552-4532-8FDB-1B2FCAF6E277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4114654-2896-4CBE-AF4D-CA99A337C574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Compound</t>
   </si>
@@ -305,6 +305,18 @@
   </si>
   <si>
     <t>DTXSID80382093</t>
+  </si>
+  <si>
+    <t>1H,1H,5H-Perfluoropentanol</t>
+  </si>
+  <si>
+    <t>DTXSID0059879</t>
+  </si>
+  <si>
+    <t>Uncertain</t>
+  </si>
+  <si>
+    <t>CV</t>
   </si>
 </sst>
 </file>
@@ -788,14 +800,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -841,30 +848,24 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="6">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -880,16 +881,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G40" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:G40"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Compound" dataDxfId="7"/>
-    <tableColumn id="2" name="DTXSID" dataDxfId="6"/>
-    <tableColumn id="3" name="Lab.Compound.Name" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I41" totalsRowShown="0">
+  <autoFilter ref="A1:I41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I41">
+    <sortCondition descending="1" ref="H1:H41"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Compound"/>
+    <tableColumn id="2" name="DTXSID"/>
+    <tableColumn id="3" name="Lab.Compound.Name"/>
     <tableColumn id="4" name="Fup.Med" dataDxfId="4"/>
     <tableColumn id="5" name="Fup.Low" dataDxfId="3"/>
     <tableColumn id="6" name="Fup.High" dataDxfId="2"/>
-    <tableColumn id="7" name="Fup.point" dataDxfId="1"/>
+    <tableColumn id="7" name="Fup.point" dataDxfId="0"/>
+    <tableColumn id="8" name="Uncertain" dataDxfId="1">
+      <calculatedColumnFormula>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="CV" dataDxfId="5">
+      <calculatedColumnFormula>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1192,31 +1202,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="A2:G40"/>
+      <selection activeCell="G41" sqref="D2:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" customWidth="1"/>
     <col min="5" max="5" width="10.109375" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1231,902 +1241,1251 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.68E-9</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.99E-15</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.25E-3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.81E-3</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v>Y</v>
+      </c>
+      <c r="I2" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>379616.13216654822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3">
+        <v>3125</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.2300000000000001E-9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.0999999999999998E-15</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7.1599999999999995E-4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="H3" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v>Y</v>
+      </c>
+      <c r="I3" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>296996.84751862445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4">
+        <v>900</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.3799999999999998E-8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.38E-15</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="H4" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v>Y</v>
+      </c>
+      <c r="I4" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>7019079.8212775877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C5">
         <v>30503</v>
       </c>
-      <c r="D2" s="2">
-        <v>1.26E-15</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D5" s="1">
+        <v>1.2699999999999999E-15</v>
+      </c>
+      <c r="E5" s="1">
         <v>1.01E-15</v>
       </c>
-      <c r="F2" s="2">
-        <v>3.35E-15</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F5" s="1">
+        <v>3.4800000000000001E-15</v>
+      </c>
+      <c r="G5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="H5" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I5" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.99228667845090812</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C6">
         <v>30507</v>
       </c>
-      <c r="D3" s="1">
-        <v>1.64E-3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.06E-3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3.0300000000000001E-3</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="D6" s="1">
+        <v>1.6199999999999999E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.07E-3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.0500000000000002E-3</v>
+      </c>
+      <c r="G6" s="1">
         <v>0.249</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="H6" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I6" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.6235827664399094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C7">
         <v>30516</v>
       </c>
-      <c r="D4" s="1">
-        <v>5.9699999999999998E-4</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D7" s="1">
+        <v>5.9299999999999999E-4</v>
+      </c>
+      <c r="E7" s="1">
         <v>4.0700000000000003E-4</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F7" s="1">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G7" s="1">
         <v>5.3299999999999997E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="H7" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I7" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.52741163919193312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C8">
         <v>30501</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D8" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="H8" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I8" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.43731778425655987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>30505</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7.7799999999999996E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="H9" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I9" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.96746969464477539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>30521</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.13E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.66E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="H10" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I10" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.93562424969988001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>30510</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7.4200000000000004E-3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.2500000000000003E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.01E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="H11" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I11" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>1.0898564277463005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5.21E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5.79E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="H12" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I12" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.10674135297113087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>477</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3.09E-2</v>
+      </c>
+      <c r="H13" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I13" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.20212557866597114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>964</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="H14" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I14" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.39028431885574744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>464</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.09E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>9.4299999999999991E-3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="H15" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I15" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.15306122448979595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>479</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.36E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="H16" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I16" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.15446545590713345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>763</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6.0500000000000001E-15</v>
+      </c>
+      <c r="F17" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="H17" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I17" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>1.0650724936438181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>945</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="H18" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I18" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.42249604244213407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>274</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4.0899999999999999E-3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7.5400000000000006E-12</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5.5100000000000001E-3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4.96E-3</v>
+      </c>
+      <c r="H19" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I19" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.68734095010977503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>949</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="H20" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I20" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.51880302682870905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3.49E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="H21" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I21" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.46509763040776231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.6700000000000001E-3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.7599999999999999E-3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5.1700000000000001E-3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="H22" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I22" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.33503864761163327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.152</v>
+      </c>
+      <c r="H23" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I23" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.51666236114699049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.14E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7.8899999999999994E-3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="H24" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I24" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.44799498746867167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.7200000000000002E-3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.9599999999999999E-3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4.1099999999999999E-3</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="H25" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I25" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.40328631452581026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.64E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.6099999999999999E-3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>5.5599999999999998E-3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2.35E-2</v>
+      </c>
+      <c r="H26" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I26" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.41348957165283695</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="H27" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I27" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.45122095080806884</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.09E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>8.3899999999999999E-3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>7.7099999999999998E-3</v>
+      </c>
+      <c r="H28" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I28" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.28599513199775328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
+        <v>908</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="H29" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I29" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.18300798580301686</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30">
+        <v>909</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.188</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="H30" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I30" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.1628310898827616</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31">
+        <v>916</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="H31" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I31" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.16000483033450072</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32">
+        <v>923</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="H32" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I32" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.26458724389951677</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33">
+        <v>3117</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2.63E-2</v>
+      </c>
+      <c r="H33" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I33" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.17185821697099901</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34">
+        <v>915</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="H34" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I34" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.327456752555155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35">
+        <v>965</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.104</v>
+      </c>
+      <c r="H35" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I35" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.34645615002757857</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36">
+        <v>476</v>
+      </c>
+      <c r="D36" s="1">
         <v>0.11700000000000001</v>
       </c>
-      <c r="F5" s="1">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.26700000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1">
-        <v>30505</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.37E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>7.8700000000000003E-3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3.8600000000000002E-2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1">
-        <v>30521</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6.96E-3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4.1099999999999999E-3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.7299999999999999E-2</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1">
-        <v>30510</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4.2599999999999999E-3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3.5900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5.2200000000000003E-2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4.8500000000000001E-2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>6.1199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1">
-        <v>477</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3.0700000000000002E-2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>4.7300000000000002E-2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3.09E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1">
-        <v>964</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5.6800000000000003E-2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3.6299999999999999E-2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.105</v>
-      </c>
-      <c r="G11" s="1">
-        <v>9.9400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1">
-        <v>464</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4.39E-13</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2.06E-2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6.3400000000000001E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1">
-        <v>479</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4.3299999999999998E-2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2.7400000000000001E-2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>8.0799999999999997E-2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2.53E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1">
-        <v>763</v>
-      </c>
-      <c r="D14" s="1">
-        <v>7.6300000000000007E-2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="G14" s="1">
-        <v>5.3800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1">
-        <v>945</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1">
-        <v>274</v>
-      </c>
-      <c r="D16" s="2">
-        <v>8.1500000000000002E-9</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2.21E-15</v>
-      </c>
-      <c r="F16" s="1">
-        <v>5.3600000000000002E-3</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2.48E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="1">
-        <v>949</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5.0900000000000001E-2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3.4700000000000002E-2</v>
-      </c>
-      <c r="F18" s="1">
-        <v>8.3400000000000002E-2</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.23100000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3.6800000000000001E-3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2.7599999999999999E-3</v>
-      </c>
-      <c r="F19" s="1">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="G19" s="1">
-        <v>3.8600000000000002E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4.7300000000000002E-2</v>
-      </c>
-      <c r="E20" s="1">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="F20" s="1">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.14E-2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>7.9600000000000001E-3</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.7899999999999999E-2</v>
-      </c>
-      <c r="G21" s="1">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2.7399999999999998E-3</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1.9599999999999999E-3</v>
-      </c>
-      <c r="F22" s="1">
-        <v>4.1399999999999996E-3</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2.4299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3.6600000000000001E-3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2.63E-3</v>
-      </c>
-      <c r="F23" s="1">
-        <v>5.5399999999999998E-3</v>
-      </c>
-      <c r="G23" s="1">
-        <v>2.35E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1.7399999999999999E-2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1.2E-2</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2.7699999999999999E-2</v>
-      </c>
-      <c r="G24" s="1">
-        <v>6.2100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1.25E-9</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2.0999999999999998E-15</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1.06E-3</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1.81E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="E36" s="1">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="H36" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I36" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.358451072736787</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37">
+        <v>267</v>
+      </c>
+      <c r="D37" s="1">
+        <v>7.1900000000000002E-3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="F37" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E26" s="1">
-        <v>8.5100000000000002E-3</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="G26" s="1">
-        <v>7.7099999999999998E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="1">
-        <v>908</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.60099999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="1">
-        <v>909</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.188</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.222</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.19900000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="1">
-        <v>916</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.51600000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="1">
-        <v>923</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.83399999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3117</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2.2800000000000001E-2</v>
-      </c>
-      <c r="G31" s="1">
-        <v>2.63E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="1">
-        <v>915</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.254</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.21199999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="1">
-        <v>965</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.121</v>
-      </c>
-      <c r="E33" s="1">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="1">
-        <v>476</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.20200000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="1">
-        <v>267</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2.86E-2</v>
-      </c>
-      <c r="E35" s="1">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="F35" s="1">
-        <v>4.2900000000000001E-2</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="G37" s="1">
         <v>4.3700000000000003E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="1">
-        <v>3125</v>
-      </c>
-      <c r="D36" s="2">
-        <v>2.2400000000000001E-9</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2.2499999999999999E-15</v>
-      </c>
-      <c r="F36" s="1">
-        <v>2.47E-3</v>
-      </c>
-      <c r="G36" s="1">
-        <v>3.0200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="H37" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I37" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.41866537992109215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C38">
         <v>906</v>
       </c>
-      <c r="D37" s="1">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="E37" s="1">
-        <v>2.3599999999999999E-2</v>
-      </c>
-      <c r="F37" s="1">
-        <v>5.1299999999999998E-2</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="D38" s="1">
+        <v>8.2799999999999992E-3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>5.7600000000000004E-3</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="G38" s="1">
         <v>7.1499999999999994E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="H38" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I38" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.43379670708863266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C39">
         <v>273</v>
       </c>
-      <c r="D38" s="1">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="D39" s="1">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E39" s="1">
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G39" s="1">
         <v>0.26600000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="H39" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I39" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.3786945812807882</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C40">
         <v>913</v>
       </c>
-      <c r="D39" s="1">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="G39" s="1">
+      <c r="D40" s="1">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4.87E-2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G40" s="1">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="H40" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I40" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.39414584149760357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C41">
         <v>899</v>
       </c>
-      <c r="D40" s="1">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="G40" s="1">
+      <c r="D41" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G41" s="1">
         <v>0.96299999999999997</v>
+      </c>
+      <c r="H41" t="str">
+        <f>IF((LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]]))&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I41" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.40120593692022266</v>
       </c>
     </row>
   </sheetData>

--- a/working/KreutzPFAS/KreutzPFAS-PPB-UC-Level4.xlsx
+++ b/working/KreutzPFAS/KreutzPFAS-PPB-UC-Level4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwambaug\git\invitrotkstats\working\KreutzPFAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C780BD6-2076-4BEA-9D3E-E76C40BE0B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1DA1786-A386-4805-82B3-8E874F67FDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Compound</t>
   </si>
@@ -94,6 +94,36 @@
     <t>4NT</t>
   </si>
   <si>
+    <t>1-Iodopentadecafluoroheptane</t>
+  </si>
+  <si>
+    <t>DTXSID5059828</t>
+  </si>
+  <si>
+    <t>(Perfluorobutyryl)-2-thenoylmethane</t>
+  </si>
+  <si>
+    <t>DTXSID7060332</t>
+  </si>
+  <si>
+    <t>1-Iodo-1H,1H,2H,2H-perfluorononane</t>
+  </si>
+  <si>
+    <t>DTXSID90880156</t>
+  </si>
+  <si>
+    <t>(Perfluoro-5-methylhexyl)ethyl 2-methylprop-2-enoate</t>
+  </si>
+  <si>
+    <t>DTXSID60379901</t>
+  </si>
+  <si>
+    <t>((2,2,3,3-Tetrafluoropropoxy)methyl)oxirane</t>
+  </si>
+  <si>
+    <t>DTXSID70880230</t>
+  </si>
+  <si>
     <t>1H,1H,7H-Perfluoroheptyl 4-methylbenzenesulfonate</t>
   </si>
   <si>
@@ -118,22 +148,10 @@
     <t>DTXSID30396867</t>
   </si>
   <si>
-    <t>1H,1H,2H,2H-Perfluorohexyl iodide</t>
-  </si>
-  <si>
-    <t>DTXSID1047578</t>
-  </si>
-  <si>
-    <t>Hexafluoroamylene</t>
-  </si>
-  <si>
-    <t>DTXSID3059927</t>
-  </si>
-  <si>
-    <t>1H,1H,10H,10H-Perfluorodecane-1,10-diol</t>
-  </si>
-  <si>
-    <t>DTXSID50369896</t>
+    <t>Bis(1H,1H-perfluoropropyl)amine</t>
+  </si>
+  <si>
+    <t>DTXSID50381992</t>
   </si>
   <si>
     <t>1H,1H,8H,8H-Perfluoro-3,6-dioxaoctane-1,8-diol</t>
@@ -250,25 +268,7 @@
     <t>8:2 Fluorotelomer methacrylate</t>
   </si>
   <si>
-    <t>DTXSID806210</t>
-  </si>
-  <si>
-    <t>Perfluorooctanoic acid</t>
-  </si>
-  <si>
-    <t>DTXSID8031865</t>
-  </si>
-  <si>
-    <t>PFOA</t>
-  </si>
-  <si>
-    <t>Perfluorooctanesulfonic acid</t>
-  </si>
-  <si>
-    <t>DTXSID3031864</t>
-  </si>
-  <si>
-    <t>PFOS</t>
+    <t>DTXSID8062101</t>
   </si>
   <si>
     <t>Heptafluorobutyramide</t>
@@ -361,46 +361,19 @@
     <t>DTXSID0059879</t>
   </si>
   <si>
-    <t>1-Iodopentadecafluoroheptane</t>
-  </si>
-  <si>
-    <t>DTXSID5059828</t>
-  </si>
-  <si>
-    <t>(Perfluorobutyryl)-2-thenoylmethane</t>
-  </si>
-  <si>
-    <t>DTXSID7060332</t>
-  </si>
-  <si>
-    <t>1-Iodo-1H,1H,2H,2H-perfluorononane</t>
-  </si>
-  <si>
-    <t>DTXSID90880156</t>
-  </si>
-  <si>
-    <t>(Perfluoro-5-methylhexyl)ethyl 2-methylprop-2-enoate</t>
-  </si>
-  <si>
-    <t>DTXSID60379901</t>
-  </si>
-  <si>
-    <t>((2,2,3,3-Tetrafluoropropoxy)methyl)oxirane</t>
-  </si>
-  <si>
-    <t>DTXSID70880230</t>
-  </si>
-  <si>
-    <t>Bis(1H,1H-perfluoropropyl)amine</t>
-  </si>
-  <si>
-    <t>DTXSID50381992</t>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Uncertain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -878,9 +851,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -926,7 +910,43 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -940,16 +960,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G55" totalsRowShown="0">
-  <autoFilter ref="A1:G55"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Compound"/>
-    <tableColumn id="2" name="DTXSID"/>
-    <tableColumn id="3" name="Lab.Compound.Name"/>
-    <tableColumn id="4" name="Fup.Med"/>
-    <tableColumn id="5" name="Fup.Low"/>
-    <tableColumn id="6" name="Fup.High"/>
-    <tableColumn id="7" name="Fup.point"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I50" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:I50"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Compound" dataDxfId="10"/>
+    <tableColumn id="2" name="DTXSID" dataDxfId="9"/>
+    <tableColumn id="3" name="Lab.Compound.Name" dataDxfId="8"/>
+    <tableColumn id="4" name="Fup.Med" dataDxfId="7"/>
+    <tableColumn id="5" name="Fup.Low" dataDxfId="6"/>
+    <tableColumn id="6" name="Fup.High" dataDxfId="5"/>
+    <tableColumn id="7" name="Fup.point" dataDxfId="4"/>
+    <tableColumn id="8" name="Uncertain" dataDxfId="1">
+      <calculatedColumnFormula>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="CV" dataDxfId="0">
+      <calculatedColumnFormula>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1252,1286 +1278,1570 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="21.1796875" customWidth="1"/>
     <col min="4" max="4" width="10.36328125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="10.36328125" customWidth="1"/>
     <col min="7" max="7" width="11.08984375" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>30503</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>1.2699999999999999E-15</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>1.01E-15</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>3.4800000000000001E-15</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="H2" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I2" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.99228667845090812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>30507</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1.6199999999999999E-3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>1.07E-3</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>3.0500000000000002E-3</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0.249</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="H3" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I3" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.6235827664399094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>30516</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>5.9299999999999999E-4</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>4.0700000000000003E-4</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>5.3299999999999997E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="H4" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I4" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.52741163919193312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>30501</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.17499999999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.11799999999999999</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.26800000000000002</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>0.26700000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="H5" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I5" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.43731778425655987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>30505</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>7.7799999999999996E-3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0.121</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="H6" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I6" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.96746969464477539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>30521</v>
       </c>
-      <c r="D7">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="E7">
-        <v>4.13E-3</v>
-      </c>
-      <c r="F7">
-        <v>1.66E-2</v>
-      </c>
-      <c r="G7">
+      <c r="D7" s="1">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="G7" s="1">
         <v>0.34499999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="H7" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I7" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.6385909540749457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>30510</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>7.4200000000000004E-3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>4.2500000000000003E-3</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>2.01E-2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>3.5900000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="H8" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I8" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>1.0898564277463005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>5.21E-2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>5.79E-2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>6.1199999999999997E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="H9" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I9" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.10674135297113087</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
+        <v>513</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I10" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.61362382790954229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1">
+        <v>812</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8.4899999999999993E-3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5.7600000000000004E-3</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I11" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>1.0817047667123387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1">
+        <v>474</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.112</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I12" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.68369917236415989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>760</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.5100000000000001E-7</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.6800000000000002E-15</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v>Y</v>
+      </c>
+      <c r="I13" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>75615.903732005274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3096</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I14" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.56150952000912102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1">
         <v>477</v>
       </c>
-      <c r="D10">
+      <c r="D15" s="1">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2.75E-2</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I15" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.20622021263595261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1">
+        <v>964</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I16" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.39028431885574744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1">
+        <v>464</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.09E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>9.4299999999999991E-3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I17" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.15306122448979595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1">
+        <v>479</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4.36E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="H18" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I18" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.15446545590713345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1">
+        <v>959</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="E19" s="1">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="E10">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="F10">
-        <v>3.8399999999999997E-2</v>
-      </c>
-      <c r="G10">
-        <v>3.09E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11">
-        <v>964</v>
-      </c>
-      <c r="D11">
-        <v>4.6800000000000001E-2</v>
-      </c>
-      <c r="E11">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="F11">
-        <v>6.9599999999999995E-2</v>
-      </c>
-      <c r="G11">
-        <v>9.9400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>464</v>
-      </c>
-      <c r="D12">
-        <v>1.09E-2</v>
-      </c>
-      <c r="E12">
-        <v>9.4299999999999991E-3</v>
-      </c>
-      <c r="F12">
-        <v>1.2699999999999999E-2</v>
-      </c>
-      <c r="G12">
-        <v>1.2699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13">
-        <v>479</v>
-      </c>
-      <c r="D13">
-        <v>4.36E-2</v>
-      </c>
-      <c r="E13">
-        <v>3.7100000000000001E-2</v>
-      </c>
-      <c r="F13">
+      <c r="F19" s="1">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="H19" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I19" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.54119261587498335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1">
+        <v>949</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="H20" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I20" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.51880302682870905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3.49E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="H21" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I21" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.46509763040776231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.6700000000000001E-3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.7599999999999999E-3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5.1700000000000001E-3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I22" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.33503864761163327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.152</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I23" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.51666236114699049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.14E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7.8899999999999994E-3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I24" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.44799498746867167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.7200000000000002E-3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.9599999999999999E-3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4.1099999999999999E-3</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I25" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.40328631452581026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.64E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.6099999999999999E-3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>5.5599999999999998E-3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2.35E-2</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I26" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.41348957165283695</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I27" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.45122095080806884</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="1">
+        <v>940</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5.3E-3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3.5100000000000001E-3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G28" s="1">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I28" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.43222949557181362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3203</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.1100000000000001E-3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7.9799999999999999E-4</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.58E-3</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="H29" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I29" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.35944107372678802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3142</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2.8500000000000002E-15</v>
+      </c>
+      <c r="F30" s="2">
+        <v>4.0099999999999999E-5</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.315</v>
+      </c>
+      <c r="H30" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I30" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>8.1836734688061217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="1">
+        <v>471</v>
+      </c>
+      <c r="D31" s="2">
+        <v>7.86E-5</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5.0099999999999998E-5</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1.36E-4</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="H31" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I31" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.55758944799293764</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="1">
+        <v>478</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3.4400000000000003E-5</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="F32" s="2">
+        <v>5.0399999999999999E-5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H32" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I32" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.37672045562411005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="1">
+        <v>468</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4.6900000000000003E-8</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2.4800000000000001E-15</v>
+      </c>
+      <c r="F33" s="1">
+        <v>6.11E-4</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="H33" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v>Y</v>
+      </c>
+      <c r="I33" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>6646.7951785988425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="1">
+        <v>276</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2.5699999999999998E-3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1.89E-3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3.6700000000000001E-3</v>
+      </c>
+      <c r="G34" s="1">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="H34" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I34" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.35337092035257689</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="1">
+        <v>467</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="G35" s="1">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="G13">
-        <v>5.0599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14">
-        <v>763</v>
-      </c>
-      <c r="D14">
-        <v>2.9700000000000001E-2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>6.0500000000000001E-15</v>
-      </c>
-      <c r="F14">
-        <v>6.2E-2</v>
-      </c>
-      <c r="G14">
-        <v>5.3800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15">
-        <v>945</v>
-      </c>
-      <c r="D15">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="E15">
-        <v>0.34</v>
-      </c>
-      <c r="F15">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="G15">
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16">
-        <v>274</v>
-      </c>
-      <c r="D16">
-        <v>4.0899999999999999E-3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>7.5400000000000006E-12</v>
-      </c>
-      <c r="F16">
-        <v>5.5100000000000001E-3</v>
-      </c>
-      <c r="G16">
-        <v>4.96E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17">
-        <v>949</v>
-      </c>
-      <c r="D17">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="E17">
+      <c r="H35" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I35" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.43822508256414605</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="1">
+        <v>908</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="H36" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I36" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.18300798580301686</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="1">
+        <v>909</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.188</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="H37" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I37" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.1628310898827616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="1">
+        <v>916</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="H38" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I38" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.16000483033450072</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="1">
+        <v>923</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="H39" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I39" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.26458724389951677</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3117</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2.63E-2</v>
+      </c>
+      <c r="H40" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I40" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.17185821697099901</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="1">
+        <v>915</v>
+      </c>
+      <c r="D41" s="1">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="F41" s="1">
         <v>0.11799999999999999</v>
       </c>
-      <c r="F17">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="G17">
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18">
-        <v>5.0900000000000001E-2</v>
-      </c>
-      <c r="E18">
-        <v>3.49E-2</v>
-      </c>
-      <c r="F18">
-        <v>8.1299999999999997E-2</v>
-      </c>
-      <c r="G18">
-        <v>0.23100000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19">
-        <v>3.6700000000000001E-3</v>
-      </c>
-      <c r="E19">
-        <v>2.7599999999999999E-3</v>
-      </c>
-      <c r="F19">
-        <v>5.1700000000000001E-3</v>
-      </c>
-      <c r="G19">
-        <v>3.8600000000000002E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20">
-        <v>4.7399999999999998E-2</v>
-      </c>
-      <c r="E20">
-        <v>3.1E-2</v>
-      </c>
-      <c r="F20">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="G20">
-        <v>0.152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21">
-        <v>1.14E-2</v>
-      </c>
-      <c r="E21">
-        <v>7.8899999999999994E-3</v>
-      </c>
-      <c r="F21">
-        <v>1.7899999999999999E-2</v>
-      </c>
-      <c r="G21">
-        <v>7.0400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22">
-        <v>2.7200000000000002E-3</v>
-      </c>
-      <c r="E22">
-        <v>1.9599999999999999E-3</v>
-      </c>
-      <c r="F22">
-        <v>4.1099999999999999E-3</v>
-      </c>
-      <c r="G22">
-        <v>2.4299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23">
-        <v>3.64E-3</v>
-      </c>
-      <c r="E23">
-        <v>2.6099999999999999E-3</v>
-      </c>
-      <c r="F23">
-        <v>5.5599999999999998E-3</v>
-      </c>
-      <c r="G23">
-        <v>2.35E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24">
-        <v>1.7299999999999999E-2</v>
-      </c>
-      <c r="E24">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="F24">
-        <v>2.7199999999999998E-2</v>
-      </c>
-      <c r="G24">
-        <v>6.2100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25">
-        <v>940</v>
-      </c>
-      <c r="D25">
-        <v>5.3E-3</v>
-      </c>
-      <c r="E25">
-        <v>3.5100000000000001E-3</v>
-      </c>
-      <c r="F25">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G25">
-        <v>8.5599999999999996E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26">
-        <v>3203</v>
-      </c>
-      <c r="D26">
-        <v>1.1100000000000001E-3</v>
-      </c>
-      <c r="E26">
-        <v>7.9799999999999999E-4</v>
-      </c>
-      <c r="F26">
-        <v>1.58E-3</v>
-      </c>
-      <c r="G26">
-        <v>0.70599999999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27">
-        <v>3142</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2.5000000000000002E-6</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2.8500000000000002E-15</v>
-      </c>
-      <c r="F27" s="1">
-        <v>4.0099999999999999E-5</v>
-      </c>
-      <c r="G27">
-        <v>0.315</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28">
-        <v>471</v>
-      </c>
-      <c r="D28" s="1">
-        <v>7.86E-5</v>
-      </c>
-      <c r="E28" s="1">
-        <v>5.0099999999999998E-5</v>
-      </c>
-      <c r="F28">
-        <v>1.36E-4</v>
-      </c>
-      <c r="G28">
-        <v>0.23400000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29">
-        <v>478</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3.4400000000000003E-5</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="F29" s="1">
-        <v>5.0399999999999999E-5</v>
-      </c>
-      <c r="G29">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30">
-        <v>468</v>
-      </c>
-      <c r="D30" s="1">
-        <v>3.8799999999999997E-8</v>
-      </c>
-      <c r="E30" s="1">
-        <v>2.5E-15</v>
-      </c>
-      <c r="F30">
-        <v>6.1300000000000005E-4</v>
-      </c>
-      <c r="G30">
-        <v>0.17699999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31">
-        <v>276</v>
-      </c>
-      <c r="D31">
-        <v>2.5699999999999998E-3</v>
-      </c>
-      <c r="E31">
-        <v>1.89E-3</v>
-      </c>
-      <c r="F31">
-        <v>3.6700000000000001E-3</v>
-      </c>
-      <c r="G31">
-        <v>6.6500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32">
-        <v>467</v>
-      </c>
-      <c r="D32">
-        <v>2.4099999999999998E-3</v>
-      </c>
-      <c r="E32">
-        <v>1.6800000000000001E-3</v>
-      </c>
-      <c r="F32">
-        <v>3.7499999999999999E-3</v>
-      </c>
-      <c r="G32">
-        <v>5.0299999999999997E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1.9000000000000001E-9</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2.0999999999999998E-15</v>
-      </c>
-      <c r="F33">
-        <v>1.3600000000000001E-3</v>
-      </c>
-      <c r="G33">
-        <v>1.81E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34">
-        <v>1.09E-2</v>
-      </c>
-      <c r="E34">
-        <v>8.3899999999999999E-3</v>
-      </c>
-      <c r="F34">
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="G34">
-        <v>7.7099999999999998E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35">
-        <v>908</v>
-      </c>
-      <c r="D35">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="E35">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="F35">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="G35">
-        <v>0.60099999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36">
-        <v>909</v>
-      </c>
-      <c r="D36">
-        <v>0.188</v>
-      </c>
-      <c r="E36">
+      <c r="G41" s="1">
+        <v>0.497</v>
+      </c>
+      <c r="H41" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I41" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.33482142857142855</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="1">
+        <v>965</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3.95E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>5.57E-2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="H42" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I42" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.32549728752260398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="1">
+        <v>476</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="H43" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I43" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.26544401544401552</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="1">
+        <v>267</v>
+      </c>
+      <c r="D44" s="1">
+        <v>9.3799999999999994E-3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>7.4900000000000001E-3</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1.23E-2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="H44" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I44" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.26162917192463342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3125</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1.5E-9</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2.2200000000000002E-15</v>
+      </c>
+      <c r="F45" s="1">
+        <v>7.8700000000000005E-4</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="H45" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v>Y</v>
+      </c>
+      <c r="I45" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>267687.07482917688</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="1">
+        <v>906</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.11E-2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>8.1300000000000001E-3</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1.67E-2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="H46" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I46" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.39391432248575103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="1">
+        <v>273</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="H47" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I47" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.28585902446084821</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="1">
+        <v>913</v>
+      </c>
+      <c r="D48" s="1">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="H48" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I48" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.31703787284144436</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="1">
+        <v>899</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="E49" s="1">
         <v>0.16200000000000001</v>
       </c>
-      <c r="F36">
-        <v>0.222</v>
-      </c>
-      <c r="G36">
-        <v>0.19900000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37">
-        <v>916</v>
-      </c>
-      <c r="D37">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="E37">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F37">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="G37">
-        <v>0.51600000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38">
-        <v>923</v>
-      </c>
-      <c r="D38">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="E38">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="F38">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="G38">
-        <v>0.83399999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39">
-        <v>3117</v>
-      </c>
-      <c r="D39">
-        <v>1.9E-2</v>
-      </c>
-      <c r="E39">
-        <v>1.6299999999999999E-2</v>
-      </c>
-      <c r="F39">
-        <v>2.2700000000000001E-2</v>
-      </c>
-      <c r="G39">
-        <v>2.63E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40">
-        <v>915</v>
-      </c>
-      <c r="D40">
-        <v>6.1699999999999998E-2</v>
-      </c>
-      <c r="E40">
-        <v>4.6699999999999998E-2</v>
-      </c>
-      <c r="F40">
-        <v>8.6300000000000002E-2</v>
-      </c>
-      <c r="G40">
-        <v>0.21199999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41">
-        <v>965</v>
-      </c>
-      <c r="D41">
-        <v>2.9600000000000001E-2</v>
-      </c>
-      <c r="E41">
-        <v>2.2100000000000002E-2</v>
-      </c>
-      <c r="F41">
-        <v>4.2200000000000001E-2</v>
-      </c>
-      <c r="G41">
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42">
-        <v>476</v>
-      </c>
-      <c r="D42">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="E42">
-        <v>8.6800000000000002E-2</v>
-      </c>
-      <c r="F42">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="G42">
-        <v>0.20200000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43">
-        <v>267</v>
-      </c>
-      <c r="D43">
-        <v>7.1900000000000002E-3</v>
-      </c>
-      <c r="E43">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="F43">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G43">
-        <v>4.3700000000000003E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44">
-        <v>3125</v>
-      </c>
-      <c r="D44" s="1">
-        <v>1.2300000000000001E-9</v>
-      </c>
-      <c r="E44" s="1">
-        <v>2.0999999999999998E-15</v>
-      </c>
-      <c r="F44">
-        <v>7.1599999999999995E-4</v>
-      </c>
-      <c r="G44">
-        <v>3.0200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45">
-        <v>906</v>
-      </c>
-      <c r="D45">
-        <v>8.2799999999999992E-3</v>
-      </c>
-      <c r="E45">
-        <v>5.7600000000000004E-3</v>
-      </c>
-      <c r="F45">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="G45">
-        <v>7.1499999999999994E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>105</v>
-      </c>
-      <c r="B46" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46">
-        <v>273</v>
-      </c>
-      <c r="D46">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="E46">
-        <v>8.3900000000000002E-2</v>
-      </c>
-      <c r="F46">
-        <v>0.17</v>
-      </c>
-      <c r="G46">
-        <v>0.26600000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>107</v>
-      </c>
-      <c r="B47" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47">
-        <v>913</v>
-      </c>
-      <c r="D47">
-        <v>6.7699999999999996E-2</v>
-      </c>
-      <c r="E47">
-        <v>4.87E-2</v>
-      </c>
-      <c r="F47">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="G47">
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>109</v>
-      </c>
-      <c r="B48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48">
-        <v>899</v>
-      </c>
-      <c r="D48">
-        <v>0.22</v>
-      </c>
-      <c r="E48">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="F48">
+      <c r="F49" s="1">
         <v>0.33500000000000002</v>
       </c>
-      <c r="G48">
+      <c r="G49" s="1">
         <v>0.96299999999999997</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="H49" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v/>
+      </c>
+      <c r="I49" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.40120593692022266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C49">
+      <c r="C50" s="1">
         <v>900</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D50" s="2">
         <v>3.3799999999999998E-8</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E50" s="2">
         <v>2.38E-15</v>
       </c>
-      <c r="F49">
+      <c r="F50" s="1">
         <v>0.46500000000000002</v>
       </c>
-      <c r="G49">
+      <c r="G50" s="1">
         <v>0.35499999999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>113</v>
-      </c>
-      <c r="B50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50">
-        <v>513</v>
-      </c>
-      <c r="D50">
-        <v>0.222</v>
-      </c>
-      <c r="E50">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="F50">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="G50">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51">
-        <v>812</v>
-      </c>
-      <c r="D51">
-        <v>8.4899999999999993E-3</v>
-      </c>
-      <c r="E51">
-        <v>4.7000000000000002E-3</v>
-      </c>
-      <c r="F51">
-        <v>2.2700000000000001E-2</v>
-      </c>
-      <c r="G51">
-        <v>5.7600000000000004E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52">
-        <v>474</v>
-      </c>
-      <c r="D52">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="E52">
-        <v>2.5499999999999998E-2</v>
-      </c>
-      <c r="F52">
-        <v>7.8700000000000006E-2</v>
-      </c>
-      <c r="G52">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>119</v>
-      </c>
-      <c r="B53" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53">
-        <v>760</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2.5100000000000001E-7</v>
-      </c>
-      <c r="E53" s="1">
-        <v>2.6800000000000002E-15</v>
-      </c>
-      <c r="F53">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="G53">
-        <v>6.0299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>121</v>
-      </c>
-      <c r="B54" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54">
-        <v>3096</v>
-      </c>
-      <c r="D54">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="E54">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="F54">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="G54">
-        <v>0.76200000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>123</v>
-      </c>
-      <c r="B55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55">
-        <v>959</v>
-      </c>
-      <c r="D55">
-        <v>4.6100000000000002E-2</v>
-      </c>
-      <c r="E55">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="F55">
-        <v>8.0199999999999994E-2</v>
-      </c>
-      <c r="G55">
-        <v>4.3299999999999998E-2</v>
+      <c r="H50" s="3" t="str">
+        <f>IF(LOG10(Table1[[#This Row],[Fup.High]])-LOG10(Table1[[#This Row],[Fup.Med]])&gt;3,"Y","")</f>
+        <v>Y</v>
+      </c>
+      <c r="I50" s="4">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>7019079.8212775877</v>
       </c>
     </row>
   </sheetData>
